--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:21:09+00:00</t>
+    <t>2022-02-17T07:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:42:42+00:00</t>
+    <t>2022-02-17T14:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T14:13:17+00:00</t>
+    <t>2022-02-22T09:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T09:12:17+00:00</t>
+    <t>2022-02-22T11:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$60</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:48:03+00:00</t>
+    <t>2022-02-22T14:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -719,7 +716,7 @@
 </t>
   </si>
   <si>
-    <t>Whether the organization's record is still in active use</t>
+    <t>Whether the organization's record is in active use</t>
   </si>
   <si>
     <t>Whether the organization's record is still in active use.</t>
@@ -969,7 +966,7 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Name used for the organization</t>
+    <t>Organization's name</t>
   </si>
   <si>
     <t>A name associated with the organization.</t>
@@ -996,7 +993,7 @@
     <t>Organization.alias</t>
   </si>
   <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
+    <t>A list of alternate names for this organization</t>
   </si>
   <si>
     <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
@@ -1048,6 +1045,152 @@
     <t>./ContactPoints</t>
   </si>
   <si>
+    <t>Organization.telecom.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.6.0</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>Organization.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>Organization.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.6.0</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>Organization.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Organization.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Contact Point - phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Contact Point - email</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Web Site</t>
+  </si>
+  <si>
+    <t>Contact Point - Web Site</t>
+  </si>
+  <si>
     <t>Organization.address</t>
   </si>
   <si>
@@ -1096,7 +1239,7 @@
     <t>Organization.address.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
+    <t>home | work | temp | old | billing</t>
   </si>
   <si>
     <t>The purpose of this address.</t>
@@ -1123,16 +1266,13 @@
     <t>XAD.7</t>
   </si>
   <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
     <t>./AddressPurpose</t>
   </si>
   <si>
     <t>Organization.address.type</t>
   </si>
   <si>
-    <t>postal | physical | both</t>
+    <t>postal|physical|both</t>
   </si>
   <si>
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
@@ -1326,6 +1466,9 @@
   </si>
   <si>
     <t>ISO 3166 2- or 3- letter codes MAY be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>DE</t>
   </si>
   <si>
     <t>Address.country</t>
@@ -1362,9 +1505,6 @@
   </si>
   <si>
     <t>XAD.12 / XAD.13 + XAD.14</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>Organization.partOf</t>
@@ -1648,21 +1788,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1829,7 +1954,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1848,7 +1973,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.66015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.53515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1862,7 +1987,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="54.1015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.64453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.0" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -2002,7 +2127,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
@@ -2114,7 +2239,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
@@ -2228,7 +2353,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>91</v>
       </c>
@@ -2340,7 +2465,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -2454,7 +2579,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -2568,7 +2693,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>112</v>
       </c>
@@ -2682,7 +2807,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>120</v>
       </c>
@@ -2796,7 +2921,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>128</v>
       </c>
@@ -2910,7 +3035,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -3026,7 +3151,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>141</v>
       </c>
@@ -3156,7 +3281,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
@@ -3254,7 +3379,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>157</v>
       </c>
@@ -3366,7 +3491,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>163</v>
       </c>
@@ -3480,7 +3605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>168</v>
       </c>
@@ -3594,7 +3719,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>178</v>
       </c>
@@ -3708,7 +3833,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>188</v>
       </c>
@@ -3824,7 +3949,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>199</v>
       </c>
@@ -3938,7 +4063,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>207</v>
       </c>
@@ -4050,7 +4175,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>215</v>
       </c>
@@ -4180,7 +4305,7 @@
         <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>85</v>
@@ -4282,7 +4407,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>236</v>
       </c>
@@ -4398,7 +4523,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>247</v>
       </c>
@@ -4510,7 +4635,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>248</v>
       </c>
@@ -4624,7 +4749,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>249</v>
       </c>
@@ -4756,7 +4881,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -4856,7 +4981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>259</v>
       </c>
@@ -4968,7 +5093,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>260</v>
       </c>
@@ -5082,7 +5207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>261</v>
       </c>
@@ -5198,7 +5323,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>270</v>
       </c>
@@ -5312,7 +5437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>277</v>
       </c>
@@ -5426,7 +5551,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>284</v>
       </c>
@@ -5540,7 +5665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>291</v>
       </c>
@@ -5656,7 +5781,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>299</v>
       </c>
@@ -5788,7 +5913,7 @@
         <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>73</v>
@@ -5888,7 +6013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>316</v>
       </c>
@@ -6004,7 +6129,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>321</v>
       </c>
@@ -6078,16 +6203,14 @@
         <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>321</v>
@@ -6120,7 +6243,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>333</v>
       </c>
@@ -6133,7 +6256,7 @@
         <v>74</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>73</v>
@@ -6145,20 +6268,16 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>334</v>
+        <v>158</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>159</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>73</v>
       </c>
@@ -6206,50 +6325,50 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>161</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>340</v>
+        <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>341</v>
+        <v>73</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>343</v>
+        <v>73</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>344</v>
+        <v>73</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>73</v>
@@ -6261,15 +6380,17 @@
         <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -6306,31 +6427,31 @@
         <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>73</v>
@@ -6348,20 +6469,20 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -6370,20 +6491,18 @@
         <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>73</v>
@@ -6408,55 +6527,53 @@
         <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>167</v>
+        <v>339</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>341</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>162</v>
+        <v>342</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>73</v>
@@ -6464,7 +6581,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6472,34 +6589,34 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -6512,7 +6629,7 @@
         <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>73</v>
@@ -6524,13 +6641,13 @@
         <v>73</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>354</v>
+        <v>73</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>73</v>
@@ -6548,7 +6665,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6563,16 +6680,16 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>358</v>
+        <v>206</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>73</v>
@@ -6580,7 +6697,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6594,10 +6711,10 @@
         <v>84</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H42" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>85</v>
@@ -6606,15 +6723,17 @@
         <v>104</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -6626,7 +6745,7 @@
         <v>73</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>73</v>
@@ -6640,11 +6759,9 @@
       <c r="W42" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="X42" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>73</v>
@@ -6662,7 +6779,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6677,16 +6794,16 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>73</v>
+        <v>361</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>73</v>
@@ -6694,7 +6811,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6708,7 +6825,7 @@
         <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>73</v>
@@ -6717,20 +6834,18 @@
         <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>158</v>
+        <v>363</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>73</v>
       </c>
@@ -6742,7 +6857,7 @@
         <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>373</v>
+        <v>73</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>73</v>
@@ -6778,7 +6893,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6793,10 +6908,10 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>375</v>
+        <v>162</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>376</v>
+        <v>162</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>73</v>
@@ -6810,7 +6925,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6821,10 +6936,10 @@
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>73</v>
@@ -6833,13 +6948,13 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6854,7 +6969,7 @@
         <v>73</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>380</v>
+        <v>73</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>73</v>
@@ -6890,13 +7005,13 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
@@ -6905,16 +7020,16 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>382</v>
+        <v>127</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>384</v>
+        <v>214</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>73</v>
@@ -6922,39 +7037,45 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="C45" t="s" s="2">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>158</v>
+        <v>322</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>73</v>
       </c>
@@ -6966,7 +7087,7 @@
         <v>73</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>389</v>
+        <v>73</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>73</v>
@@ -7002,43 +7123,43 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>390</v>
+        <v>321</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>73</v>
+        <v>327</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>328</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>73</v>
+        <v>331</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>395</v>
+        <v>73</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7054,20 +7175,18 @@
         <v>73</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>158</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>396</v>
+        <v>159</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>73</v>
@@ -7080,7 +7199,7 @@
         <v>73</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>399</v>
+        <v>73</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>73</v>
@@ -7116,7 +7235,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>400</v>
+        <v>161</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -7128,13 +7247,13 @@
         <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>401</v>
+        <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>402</v>
+        <v>162</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>73</v>
@@ -7146,20 +7265,20 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>403</v>
+        <v>334</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>404</v>
+        <v>129</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
@@ -7168,18 +7287,20 @@
         <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>405</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>73</v>
@@ -7216,43 +7337,43 @@
         <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>407</v>
+        <v>167</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>408</v>
+        <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>409</v>
+        <v>162</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>410</v>
+        <v>73</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>73</v>
@@ -7260,11 +7381,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>411</v>
+        <v>335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>412</v>
+        <v>73</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7274,7 +7395,7 @@
         <v>84</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>73</v>
@@ -7283,13 +7404,13 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>413</v>
+        <v>336</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>414</v>
+        <v>337</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7301,10 +7422,10 @@
         <v>73</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>415</v>
+        <v>73</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>73</v>
@@ -7316,13 +7437,11 @@
         <v>73</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>73</v>
+        <v>338</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>73</v>
@@ -7340,7 +7459,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>416</v>
+        <v>339</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -7349,22 +7468,22 @@
         <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>417</v>
+        <v>341</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>418</v>
+        <v>342</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>419</v>
+        <v>343</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>73</v>
@@ -7372,7 +7491,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>420</v>
+        <v>344</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7386,7 +7505,7 @@
         <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>73</v>
@@ -7398,15 +7517,17 @@
         <v>158</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>421</v>
+        <v>345</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>422</v>
+        <v>346</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>73</v>
       </c>
@@ -7454,7 +7575,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7469,24 +7590,24 @@
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>426</v>
+        <v>351</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>427</v>
+        <v>206</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>428</v>
+        <v>352</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7503,23 +7624,25 @@
         <v>73</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>429</v>
+        <v>353</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="N50" t="s" s="2">
-        <v>431</v>
+        <v>356</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7532,7 +7655,7 @@
         <v>73</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>432</v>
+        <v>73</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>73</v>
@@ -7544,13 +7667,11 @@
         <v>73</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>73</v>
+        <v>357</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>73</v>
@@ -7568,7 +7689,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>433</v>
+        <v>358</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7583,24 +7704,24 @@
         <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>434</v>
+        <v>359</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>435</v>
+        <v>360</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>214</v>
+        <v>361</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>436</v>
+        <v>362</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7623,18 +7744,18 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>216</v>
+        <v>363</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>73</v>
       </c>
@@ -7682,7 +7803,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>436</v>
+        <v>367</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7697,24 +7818,24 @@
         <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>440</v>
+        <v>162</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>441</v>
+        <v>368</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7725,7 +7846,7 @@
         <v>74</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>73</v>
@@ -7734,23 +7855,19 @@
         <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>442</v>
+        <v>208</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>73</v>
       </c>
@@ -7798,13 +7915,13 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>441</v>
+        <v>371</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>73</v>
@@ -7813,26 +7930,28 @@
         <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>447</v>
+        <v>372</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>73</v>
       </c>
@@ -7841,7 +7960,7 @@
         <v>74</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -7853,16 +7972,20 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>322</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>159</v>
+        <v>376</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>73</v>
       </c>
@@ -7910,50 +8033,50 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>73</v>
+        <v>327</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>73</v>
+        <v>329</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>162</v>
+        <v>330</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>73</v>
+        <v>331</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>73</v>
+        <v>332</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>449</v>
+        <v>333</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7965,17 +8088,15 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -8024,19 +8145,19 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
@@ -8054,13 +8175,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>450</v>
+        <v>334</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>451</v>
+        <v>129</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8073,26 +8194,24 @@
         <v>73</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>452</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>453</v>
+        <v>164</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>73</v>
       </c>
@@ -8128,19 +8247,19 @@
         <v>73</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>454</v>
+        <v>167</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -8158,7 +8277,7 @@
         <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>73</v>
@@ -8170,9 +8289,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>455</v>
+        <v>335</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8192,21 +8311,19 @@
         <v>73</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>456</v>
+        <v>336</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>457</v>
+        <v>337</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>458</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>73</v>
       </c>
@@ -8215,7 +8332,7 @@
         <v>73</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>73</v>
+        <v>376</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>73</v>
@@ -8230,13 +8347,11 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>460</v>
+        <v>338</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -8254,7 +8369,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>455</v>
+        <v>339</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -8263,30 +8378,30 @@
         <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>73</v>
+        <v>341</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>461</v>
+        <v>342</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>462</v>
+        <v>344</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8306,20 +8421,22 @@
         <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>463</v>
+        <v>158</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>464</v>
+        <v>345</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>466</v>
+        <v>348</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -8368,7 +8485,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>462</v>
+        <v>349</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8383,24 +8500,24 @@
         <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>467</v>
+        <v>350</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>468</v>
+        <v>351</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>469</v>
+        <v>352</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8411,29 +8528,31 @@
         <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>322</v>
+        <v>104</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>470</v>
+        <v>353</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>472</v>
+        <v>356</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -8458,13 +8577,11 @@
         <v>73</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>73</v>
+        <v>357</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>73</v>
@@ -8482,13 +8599,13 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>469</v>
+        <v>358</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
@@ -8497,24 +8614,24 @@
         <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>473</v>
+        <v>359</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>474</v>
+        <v>360</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>73</v>
+        <v>361</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>475</v>
+        <v>362</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8534,21 +8651,21 @@
         <v>73</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>476</v>
+        <v>364</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>73</v>
       </c>
@@ -8596,7 +8713,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>475</v>
+        <v>367</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8611,10 +8728,10 @@
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>479</v>
+        <v>162</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>480</v>
+        <v>162</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>73</v>
@@ -8626,9 +8743,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>481</v>
+        <v>368</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8639,7 +8756,7 @@
         <v>74</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>73</v>
@@ -8648,21 +8765,19 @@
         <v>73</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>482</v>
+        <v>208</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>483</v>
+        <v>369</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>485</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>73</v>
       </c>
@@ -8710,13 +8825,13 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>481</v>
+        <v>371</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>73</v>
@@ -8725,40 +8840,3552 @@
         <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AL62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="X64" s="2"/>
+      <c r="Y64" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="X66" s="2"/>
+      <c r="Y66" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN60">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:48:55+00:00</t>
+    <t>2022-02-22T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:32:49+00:00</t>
+    <t>2022-02-22T16:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:56:55+00:00</t>
+    <t>2022-02-22T17:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T17:53:34+00:00</t>
+    <t>2022-02-24T10:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T10:57:23+00:00</t>
+    <t>2022-02-24T14:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3313" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T14:55:32+00:00</t>
+    <t>2022-03-17T13:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -468,13 +468,6 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t xml:space="preserve">org-1
 </t>
   </si>
@@ -494,15 +487,6 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>spor</t>
-  </si>
-  <si>
-    <t>SPOR (Europe)</t>
-  </si>
-  <si>
-    <t>EMA - SPOR Organization identifier</t>
-  </si>
-  <si>
     <t>Organization.identifier.id</t>
   </si>
   <si>
@@ -535,6 +519,9 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -551,9 +538,6 @@
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>official</t>
   </si>
   <si>
     <t>required</t>
@@ -614,12 +598,12 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/omswi</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
+    <t>http://hl7.eu/fhir/ig/gravitate-health/ValueSet/organizationIdSystems</t>
+  </si>
+  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -633,6 +617,9 @@
   </si>
   <si>
     <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -807,6 +794,10 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -814,6 +805,12 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>spor</t>
+  </si>
+  <si>
+    <t>SPOR (Europe)</t>
   </si>
   <si>
     <t>EMA - SPOR Referential</t>
@@ -1006,6 +1003,32 @@
 For searching knowing previous names that the organization was known by can be very useful.</t>
   </si>
   <si>
+    <t>Organization.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExtendedContactDetail
+</t>
+  </si>
+  <si>
+    <t>Official contact details for the Organization</t>
+  </si>
+  <si>
+    <t>The contact details of communication devices available relevant to the specific Organization. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
+  </si>
+  <si>
+    <t>The address/telecom use code 'home' are not to be used. Note that these contacts are not the contact details of people who provide the service (that would be through PractitionerRole), these are official contacts for the Organization itself for specific purposes. E.g. Mailing Addresses, Billing Addresses, Contact numbers for Booking or Billing Enquiries, general web address, web address for online bookings etc.</t>
+  </si>
+  <si>
+    <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:The telecom of an organization can never be of use 'home' {telecom.where(use = 'home').empty()}org-4:The address of an organization can never be of use 'home' {address.where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>.contactParty</t>
+  </si>
+  <si>
     <t>Organization.telecom</t>
   </si>
   <si>
@@ -1013,7 +1036,7 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the organization</t>
+    <t>Deprecated - use contact.telecom</t>
   </si>
   <si>
     <t>A contact detail for the organization.</t>
@@ -1198,7 +1221,7 @@
 </t>
   </si>
   <si>
-    <t>An address for the organization</t>
+    <t>Deprecated - use contact.address</t>
   </si>
   <si>
     <t>An address for the organization.</t>
@@ -1520,130 +1543,6 @@
   </si>
   <si>
     <t>.playedBy[classCode=Part].scoper</t>
-  </si>
-  <si>
-    <t>Organization.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Contact for the organization for a certain purpose</t>
-  </si>
-  <si>
-    <t>Contact for the organization for a certain purpose.</t>
-  </si>
-  <si>
-    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
-  </si>
-  <si>
-    <t>Need to keep track of assigned contact points within bigger organization.</t>
-  </si>
-  <si>
-    <t>.contactParty</t>
-  </si>
-  <si>
-    <t>Organization.contact.id</t>
-  </si>
-  <si>
-    <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>Organization.contact.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Organization.contact.purpose</t>
-  </si>
-  <si>
-    <t>The type of contact</t>
-  </si>
-  <si>
-    <t>Indicates a purpose for which the contact can be reached.</t>
-  </si>
-  <si>
-    <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>The purpose for which you would contact a contact party.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>./type</t>
-  </si>
-  <si>
-    <t>Organization.contact.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
-</t>
-  </si>
-  <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by name.</t>
-  </si>
-  <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom</t>
-  </si>
-  <si>
-    <t>Contact details (telephone, email, etc.)  for a contact</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
-  </si>
-  <si>
-    <t>PID-13, PID-14</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>Organization.contact.address</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact.</t>
-  </si>
-  <si>
-    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t>PID-11</t>
-  </si>
-  <si>
-    <t>./addr</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -1954,7 +1853,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1963,7 +1862,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.4375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.71484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1986,14 +1885,14 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="54.1015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.0" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="40.55859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.10546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -3223,14 +3122,16 @@
         <v>73</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AB11" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>141</v>
@@ -3242,34 +3143,32 @@
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>73</v>
       </c>
@@ -3278,7 +3177,7 @@
         <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -3287,21 +3186,19 @@
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>73</v>
       </c>
@@ -3349,50 +3246,50 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -3404,15 +3301,17 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>73</v>
@@ -3449,37 +3348,37 @@
         <v>73</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>73</v>
@@ -3493,41 +3392,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>73</v>
       </c>
@@ -3551,49 +3452,47 @@
         <v>73</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>73</v>
@@ -3607,7 +3506,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3624,25 +3523,25 @@
         <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>73</v>
@@ -3652,7 +3551,7 @@
         <v>73</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>73</v>
@@ -3667,11 +3566,11 @@
         <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>73</v>
@@ -3689,7 +3588,7 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -3704,10 +3603,10 @@
         <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>73</v>
@@ -3721,7 +3620,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3729,7 +3628,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>84</v>
@@ -3744,19 +3643,19 @@
         <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>73</v>
@@ -3769,7 +3668,7 @@
         <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>73</v>
@@ -3781,11 +3680,11 @@
         <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>73</v>
@@ -3803,7 +3702,7 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
@@ -3818,16 +3717,16 @@
         <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>73</v>
@@ -3835,7 +3734,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3858,20 +3757,18 @@
         <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3880,10 +3777,10 @@
         <v>73</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>73</v>
@@ -3919,7 +3816,7 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -3934,16 +3831,16 @@
         <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>73</v>
@@ -3951,7 +3848,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3974,17 +3871,15 @@
         <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>73</v>
@@ -3997,7 +3892,7 @@
         <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>73</v>
@@ -4033,7 +3928,7 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -4048,16 +3943,16 @@
         <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>73</v>
@@ -4065,7 +3960,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4088,15 +3983,17 @@
         <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>73</v>
@@ -4145,7 +4042,7 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -4160,16 +4057,16 @@
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>73</v>
@@ -4177,7 +4074,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4194,28 +4091,32 @@
         <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="Q20" t="s" s="2">
         <v>73</v>
       </c>
@@ -4274,24 +4175,24 @@
         <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>73</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4302,38 +4203,36 @@
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="P21" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
         <v>73</v>
       </c>
@@ -4353,13 +4252,13 @@
         <v>73</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>73</v>
@@ -4377,13 +4276,13 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
@@ -4392,24 +4291,24 @@
         <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4420,7 +4319,7 @@
         <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>73</v>
@@ -4429,23 +4328,19 @@
         <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>73</v>
       </c>
@@ -4469,13 +4364,13 @@
         <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>73</v>
@@ -4493,50 +4388,50 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>73</v>
@@ -4548,15 +4443,17 @@
         <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M23" s="2"/>
+      <c r="M23" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>73</v>
@@ -4593,37 +4490,37 @@
         <v>73</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>73</v>
@@ -4637,11 +4534,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4657,21 +4554,23 @@
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>73</v>
       </c>
@@ -4707,19 +4606,17 @@
         <v>73</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4731,13 +4628,13 @@
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>162</v>
+        <v>254</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>73</v>
@@ -4751,9 +4648,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>73</v>
       </c>
@@ -4774,19 +4673,19 @@
         <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>73</v>
@@ -4823,17 +4722,19 @@
         <v>73</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -4848,10 +4749,10 @@
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>73</v>
@@ -4865,11 +4766,9 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>73</v>
       </c>
@@ -4878,7 +4777,7 @@
         <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>73</v>
@@ -4887,23 +4786,19 @@
         <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>73</v>
       </c>
@@ -4951,25 +4846,25 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>256</v>
+        <v>73</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>73</v>
@@ -4987,14 +4882,14 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -5006,15 +4901,17 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -5051,37 +4948,37 @@
         <v>73</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>73</v>
@@ -5099,14 +4996,14 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>73</v>
@@ -5115,21 +5012,23 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>164</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>73</v>
       </c>
@@ -5138,7 +5037,7 @@
         <v>73</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>73</v>
@@ -5165,37 +5064,37 @@
         <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>73</v>
@@ -5209,7 +5108,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5217,7 +5116,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>84</v>
@@ -5232,20 +5131,18 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>73</v>
       </c>
@@ -5254,7 +5151,7 @@
         <v>73</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>73</v>
@@ -5293,7 +5190,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -5308,10 +5205,10 @@
         <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>73</v>
@@ -5325,7 +5222,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5333,7 +5230,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>84</v>
@@ -5348,18 +5245,18 @@
         <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>73</v>
       </c>
@@ -5407,7 +5304,7 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -5422,10 +5319,10 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>73</v>
@@ -5439,7 +5336,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5447,7 +5344,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>84</v>
@@ -5462,17 +5359,17 @@
         <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>73</v>
@@ -5521,7 +5418,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -5536,10 +5433,10 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>73</v>
@@ -5553,7 +5450,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5576,17 +5473,19 @@
         <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N32" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>73</v>
@@ -5635,7 +5534,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -5650,10 +5549,10 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>73</v>
@@ -5667,7 +5566,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5690,19 +5589,19 @@
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>73</v>
@@ -5751,7 +5650,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5766,10 +5665,10 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>73</v>
@@ -5783,7 +5682,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5806,19 +5705,19 @@
         <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
@@ -5867,7 +5766,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5876,22 +5775,22 @@
         <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>73</v>
@@ -5899,7 +5798,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5910,7 +5809,7 @@
         <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>73</v>
@@ -5919,22 +5818,22 @@
         <v>73</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -5983,31 +5882,31 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>73</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>73</v>
@@ -6015,7 +5914,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6038,19 +5937,19 @@
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>158</v>
+        <v>321</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
@@ -6099,7 +5998,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -6111,13 +6010,13 @@
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>73</v>
@@ -6131,7 +6030,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6154,19 +6053,19 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>73</v>
@@ -6203,17 +6102,17 @@
         <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
@@ -6222,22 +6121,22 @@
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>73</v>
@@ -6245,7 +6144,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6268,13 +6167,13 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6325,7 +6224,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
@@ -6343,7 +6242,7 @@
         <v>73</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>73</v>
@@ -6357,7 +6256,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6386,7 +6285,7 @@
         <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>133</v>
@@ -6427,19 +6326,19 @@
         <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -6457,7 +6356,7 @@
         <v>73</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>73</v>
@@ -6471,7 +6370,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6497,10 +6396,10 @@
         <v>104</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6527,11 +6426,11 @@
         <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>73</v>
@@ -6549,7 +6448,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6558,22 +6457,22 @@
         <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>73</v>
@@ -6581,7 +6480,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6604,19 +6503,19 @@
         <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>73</v>
@@ -6665,7 +6564,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6680,16 +6579,16 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>73</v>
@@ -6697,7 +6596,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6723,16 +6622,16 @@
         <v>104</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6757,11 +6656,11 @@
         <v>73</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>73</v>
@@ -6779,7 +6678,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6794,16 +6693,16 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>73</v>
@@ -6811,7 +6710,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6834,16 +6733,16 @@
         <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6893,7 +6792,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6908,10 +6807,10 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>73</v>
@@ -6925,7 +6824,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6948,13 +6847,13 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7005,7 +6904,7 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
@@ -7023,13 +6922,13 @@
         <v>127</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>73</v>
@@ -7037,10 +6936,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>73</v>
@@ -7062,19 +6961,19 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>73</v>
@@ -7123,7 +7022,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -7132,22 +7031,22 @@
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>73</v>
@@ -7155,7 +7054,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7178,13 +7077,13 @@
         <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7235,7 +7134,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -7253,7 +7152,7 @@
         <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>73</v>
@@ -7267,7 +7166,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7296,7 +7195,7 @@
         <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>133</v>
@@ -7337,19 +7236,19 @@
         <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -7367,7 +7266,7 @@
         <v>73</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>73</v>
@@ -7381,7 +7280,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7407,10 +7306,10 @@
         <v>104</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7422,7 +7321,7 @@
         <v>73</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>73</v>
@@ -7437,11 +7336,11 @@
         <v>73</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>73</v>
@@ -7459,7 +7358,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -7468,22 +7367,22 @@
         <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>73</v>
@@ -7491,7 +7390,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7514,19 +7413,19 @@
         <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>73</v>
@@ -7575,7 +7474,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7590,16 +7489,16 @@
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>73</v>
@@ -7607,7 +7506,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7633,16 +7532,16 @@
         <v>104</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>73</v>
@@ -7667,11 +7566,11 @@
         <v>73</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>73</v>
@@ -7689,7 +7588,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7704,16 +7603,16 @@
         <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>73</v>
@@ -7721,7 +7620,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7744,16 +7643,16 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7803,7 +7702,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7818,10 +7717,10 @@
         <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>73</v>
@@ -7835,7 +7734,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7858,13 +7757,13 @@
         <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7915,7 +7814,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7933,13 +7832,13 @@
         <v>127</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>73</v>
@@ -7947,10 +7846,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>73</v>
@@ -7972,19 +7871,19 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>73</v>
@@ -8033,7 +7932,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -8042,22 +7941,22 @@
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>73</v>
@@ -8065,7 +7964,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8088,13 +7987,13 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8145,7 +8044,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -8163,7 +8062,7 @@
         <v>73</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>73</v>
@@ -8177,7 +8076,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8206,7 +8105,7 @@
         <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>133</v>
@@ -8247,19 +8146,19 @@
         <v>73</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -8277,7 +8176,7 @@
         <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>73</v>
@@ -8291,7 +8190,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8317,10 +8216,10 @@
         <v>104</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8332,7 +8231,7 @@
         <v>73</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>73</v>
@@ -8347,11 +8246,11 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -8369,7 +8268,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -8378,22 +8277,22 @@
         <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>73</v>
@@ -8401,7 +8300,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8424,19 +8323,19 @@
         <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
@@ -8485,7 +8384,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8500,16 +8399,16 @@
         <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>73</v>
@@ -8517,7 +8416,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8543,16 +8442,16 @@
         <v>104</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
@@ -8577,11 +8476,11 @@
         <v>73</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>73</v>
@@ -8599,7 +8498,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -8614,16 +8513,16 @@
         <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>73</v>
@@ -8631,7 +8530,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8654,16 +8553,16 @@
         <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8713,7 +8612,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8728,10 +8627,10 @@
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>73</v>
@@ -8745,7 +8644,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8768,13 +8667,13 @@
         <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8825,7 +8724,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -8843,13 +8742,13 @@
         <v>127</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>73</v>
@@ -8857,10 +8756,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>73</v>
@@ -8882,19 +8781,19 @@
         <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>73</v>
@@ -8943,7 +8842,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8952,22 +8851,22 @@
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>73</v>
@@ -8975,7 +8874,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8998,13 +8897,13 @@
         <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9055,7 +8954,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -9073,7 +8972,7 @@
         <v>73</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>73</v>
@@ -9087,7 +8986,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9116,7 +9015,7 @@
         <v>131</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>133</v>
@@ -9157,19 +9056,19 @@
         <v>73</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -9187,7 +9086,7 @@
         <v>73</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>73</v>
@@ -9201,7 +9100,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9227,10 +9126,10 @@
         <v>104</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9242,7 +9141,7 @@
         <v>73</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>73</v>
@@ -9257,11 +9156,11 @@
         <v>73</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>73</v>
@@ -9279,7 +9178,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -9288,22 +9187,22 @@
         <v>84</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>73</v>
@@ -9311,7 +9210,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9334,19 +9233,19 @@
         <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>73</v>
@@ -9395,7 +9294,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -9410,16 +9309,16 @@
         <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>73</v>
@@ -9427,7 +9326,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9453,16 +9352,16 @@
         <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>73</v>
@@ -9487,11 +9386,11 @@
         <v>73</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>73</v>
@@ -9509,7 +9408,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -9524,16 +9423,16 @@
         <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>73</v>
@@ -9541,7 +9440,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9564,16 +9463,16 @@
         <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9623,7 +9522,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -9638,10 +9537,10 @@
         <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>73</v>
@@ -9655,7 +9554,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9678,13 +9577,13 @@
         <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9735,7 +9634,7 @@
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -9753,13 +9652,13 @@
         <v>127</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>73</v>
@@ -9767,7 +9666,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9790,19 +9689,19 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>73</v>
@@ -9851,7 +9750,7 @@
         <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -9860,22 +9759,22 @@
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>73</v>
@@ -9883,7 +9782,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9906,13 +9805,13 @@
         <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9963,7 +9862,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -9981,7 +9880,7 @@
         <v>73</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>73</v>
@@ -9995,7 +9894,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10024,7 +9923,7 @@
         <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>133</v>
@@ -10065,19 +9964,19 @@
         <v>73</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -10095,7 +9994,7 @@
         <v>73</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>73</v>
@@ -10109,7 +10008,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10135,16 +10034,16 @@
         <v>104</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>73</v>
@@ -10157,7 +10056,7 @@
         <v>73</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>73</v>
@@ -10169,13 +10068,13 @@
         <v>73</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>73</v>
@@ -10193,7 +10092,7 @@
         <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
@@ -10208,16 +10107,16 @@
         <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>73</v>
@@ -10225,7 +10124,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10251,13 +10150,13 @@
         <v>104</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10271,7 +10170,7 @@
         <v>73</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>73</v>
@@ -10283,13 +10182,13 @@
         <v>73</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>73</v>
@@ -10307,7 +10206,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -10322,10 +10221,10 @@
         <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>73</v>
@@ -10339,7 +10238,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10362,19 +10261,19 @@
         <v>85</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>73</v>
@@ -10387,7 +10286,7 @@
         <v>73</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>73</v>
@@ -10423,7 +10322,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -10438,10 +10337,10 @@
         <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>73</v>
@@ -10455,7 +10354,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10478,13 +10377,13 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10499,7 +10398,7 @@
         <v>73</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>73</v>
@@ -10535,7 +10434,7 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -10550,16 +10449,16 @@
         <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>73</v>
@@ -10567,11 +10466,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10590,13 +10489,13 @@
         <v>85</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10611,7 +10510,7 @@
         <v>73</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>73</v>
@@ -10647,7 +10546,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -10662,16 +10561,16 @@
         <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>73</v>
@@ -10679,11 +10578,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10702,16 +10601,16 @@
         <v>85</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10725,7 +10624,7 @@
         <v>73</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>73</v>
@@ -10761,7 +10660,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10776,10 +10675,10 @@
         <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>73</v>
@@ -10793,11 +10692,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10816,13 +10715,13 @@
         <v>85</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10873,7 +10772,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10888,16 +10787,16 @@
         <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>73</v>
@@ -10905,11 +10804,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10928,13 +10827,13 @@
         <v>85</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10949,7 +10848,7 @@
         <v>73</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>73</v>
@@ -10985,7 +10884,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -11000,16 +10899,16 @@
         <v>96</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>73</v>
@@ -11017,7 +10916,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11040,16 +10939,16 @@
         <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11063,7 +10962,7 @@
         <v>73</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>73</v>
@@ -11099,7 +10998,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -11114,16 +11013,16 @@
         <v>96</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>73</v>
@@ -11131,7 +11030,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11154,17 +11053,17 @@
         <v>85</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>73</v>
@@ -11177,7 +11076,7 @@
         <v>73</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>73</v>
@@ -11213,7 +11112,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -11228,16 +11127,16 @@
         <v>96</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>73</v>
@@ -11245,7 +11144,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11268,17 +11167,17 @@
         <v>85</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>73</v>
@@ -11327,7 +11226,7 @@
         <v>73</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
@@ -11342,16 +11241,16 @@
         <v>96</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>73</v>
@@ -11359,7 +11258,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11382,19 +11281,17 @@
         <v>73</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>73</v>
@@ -11443,7 +11340,7 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
@@ -11461,7 +11358,7 @@
         <v>73</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>494</v>
+        <v>157</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>73</v>
@@ -11470,918 +11367,6 @@
         <v>73</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AN91" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3024" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="532">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -543,7 +543,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -1003,32 +1003,6 @@
 For searching knowing previous names that the organization was known by can be very useful.</t>
   </si>
   <si>
-    <t>Organization.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExtendedContactDetail
-</t>
-  </si>
-  <si>
-    <t>Official contact details for the Organization</t>
-  </si>
-  <si>
-    <t>The contact details of communication devices available relevant to the specific Organization. This can include addresses, phone numbers, fax numbers, mobile numbers, email addresses and web sites.</t>
-  </si>
-  <si>
-    <t>The address/telecom use code 'home' are not to be used. Note that these contacts are not the contact details of people who provide the service (that would be through PractitionerRole), these are official contacts for the Organization itself for specific purposes. E.g. Mailing Addresses, Billing Addresses, Contact numbers for Booking or Billing Enquiries, general web address, web address for online bookings etc.</t>
-  </si>
-  <si>
-    <t>Need to keep track of assigned contact points within bigger organization.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {telecom.where(use = 'home').empty()}org-4:The address of an organization can never be of use 'home' {address.where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>.contactParty</t>
-  </si>
-  <si>
     <t>Organization.telecom</t>
   </si>
   <si>
@@ -1036,7 +1010,7 @@
 </t>
   </si>
   <si>
-    <t>Deprecated - use contact.telecom</t>
+    <t>A contact detail for the organization</t>
   </si>
   <si>
     <t>A contact detail for the organization.</t>
@@ -1083,7 +1057,7 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
@@ -1141,7 +1115,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>ContactPoint.use</t>
@@ -1221,7 +1195,7 @@
 </t>
   </si>
   <si>
-    <t>Deprecated - use contact.address</t>
+    <t>An address for the organization</t>
   </si>
   <si>
     <t>An address for the organization.</t>
@@ -1280,7 +1254,7 @@
     <t>The use of an address (home / work / etc.).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/address-use|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>Address.use</t>
@@ -1310,7 +1284,7 @@
     <t>The type of an address (physical / postal).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/address-type|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>Address.type</t>
@@ -1543,6 +1517,130 @@
   </si>
   <si>
     <t>.playedBy[classCode=Part].scoper</t>
+  </si>
+  <si>
+    <t>Organization.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose</t>
+  </si>
+  <si>
+    <t>Contact for the organization for a certain purpose.</t>
+  </si>
+  <si>
+    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
+  </si>
+  <si>
+    <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t>.contactParty</t>
+  </si>
+  <si>
+    <t>Organization.contact.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.contact.purpose</t>
+  </si>
+  <si>
+    <t>The type of contact</t>
+  </si>
+  <si>
+    <t>Indicates a purpose for which the contact can be reached.</t>
+  </si>
+  <si>
+    <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>The purpose for which you would contact a contact party.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>./type</t>
+  </si>
+  <si>
+    <t>Organization.contact.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
+  </si>
+  <si>
+    <t>A name associated with the contact</t>
+  </si>
+  <si>
+    <t>A name associated with the contact.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by name.</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom</t>
+  </si>
+  <si>
+    <t>Contact details (telephone, email, etc.)  for a contact</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>PID-13, PID-14</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>Organization.contact.address</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
+    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>PID-11</t>
+  </si>
+  <si>
+    <t>./addr</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -1853,7 +1951,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1862,7 +1960,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.71484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.4375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1885,14 +1983,14 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="40.55859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="54.1015625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.10546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -5986,16 +6084,14 @@
         <v>73</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>320</v>
@@ -6007,22 +6103,22 @@
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>73</v>
+        <v>326</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>73</v>
+        <v>330</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>73</v>
+        <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>73</v>
@@ -6030,7 +6126,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6041,7 +6137,7 @@
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -6053,20 +6149,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>330</v>
+        <v>154</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -6102,41 +6194,43 @@
         <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AB37" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AC37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>328</v>
+        <v>156</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>335</v>
+        <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>337</v>
+        <v>157</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>73</v>
@@ -6144,18 +6238,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>73</v>
@@ -6167,15 +6261,17 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>73</v>
@@ -6212,31 +6308,31 @@
         <v>73</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>73</v>
@@ -6256,18 +6352,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>73</v>
@@ -6276,20 +6372,18 @@
         <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>73</v>
@@ -6314,55 +6408,53 @@
         <v>73</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>163</v>
+        <v>338</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>73</v>
@@ -6370,7 +6462,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6393,16 +6485,20 @@
         <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>73</v>
       </c>
@@ -6426,11 +6522,13 @@
         <v>73</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>345</v>
+        <v>73</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>73</v>
@@ -6448,7 +6546,7 @@
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
@@ -6457,22 +6555,22 @@
         <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>350</v>
+        <v>202</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>73</v>
@@ -6488,7 +6586,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>84</v>
@@ -6497,13 +6595,13 @@
         <v>73</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>352</v>
@@ -6540,13 +6638,11 @@
         <v>73</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>73</v>
+        <v>356</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>73</v>
@@ -6564,7 +6660,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -6579,16 +6675,16 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>202</v>
+        <v>360</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>73</v>
@@ -6596,7 +6692,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6613,26 +6709,24 @@
         <v>73</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>104</v>
+        <v>362</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>73</v>
       </c>
@@ -6656,11 +6750,13 @@
         <v>73</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>364</v>
+        <v>73</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>73</v>
@@ -6678,7 +6774,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6693,16 +6789,16 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>366</v>
+        <v>157</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>367</v>
+        <v>157</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>368</v>
+        <v>73</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>73</v>
@@ -6710,7 +6806,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6733,17 +6829,15 @@
         <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>370</v>
+        <v>204</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>73</v>
@@ -6792,7 +6886,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6807,16 +6901,16 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>157</v>
+        <v>371</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>73</v>
@@ -6824,9 +6918,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>73</v>
       </c>
@@ -6835,7 +6931,7 @@
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -6844,19 +6940,23 @@
         <v>73</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>73</v>
       </c>
@@ -6904,31 +7004,31 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>73</v>
+        <v>326</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>327</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>127</v>
+        <v>328</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>73</v>
+        <v>330</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>73</v>
@@ -6936,11 +7036,9 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>73</v>
       </c>
@@ -6949,7 +7047,7 @@
         <v>74</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -6961,20 +7059,16 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>381</v>
+        <v>154</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>73</v>
       </c>
@@ -7022,31 +7116,31 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>328</v>
+        <v>156</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>335</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>337</v>
+        <v>157</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>73</v>
@@ -7054,18 +7148,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>73</v>
@@ -7077,15 +7171,17 @@
         <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>73</v>
@@ -7122,31 +7218,31 @@
         <v>73</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>73</v>
@@ -7166,18 +7262,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
@@ -7186,20 +7282,18 @@
         <v>73</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>73</v>
@@ -7209,7 +7303,7 @@
         <v>73</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>73</v>
+        <v>372</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>73</v>
@@ -7224,55 +7318,53 @@
         <v>73</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>163</v>
+        <v>338</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>73</v>
@@ -7280,7 +7372,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7303,16 +7395,20 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>73</v>
       </c>
@@ -7321,7 +7417,7 @@
         <v>73</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>380</v>
+        <v>73</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>73</v>
@@ -7336,11 +7432,13 @@
         <v>73</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>345</v>
+        <v>73</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>73</v>
@@ -7358,7 +7456,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -7367,22 +7465,22 @@
         <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>350</v>
+        <v>202</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>73</v>
@@ -7407,13 +7505,13 @@
         <v>73</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>352</v>
@@ -7450,13 +7548,11 @@
         <v>73</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>73</v>
+        <v>356</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>73</v>
@@ -7474,7 +7570,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7489,16 +7585,16 @@
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>202</v>
+        <v>360</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>73</v>
@@ -7506,7 +7602,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7523,26 +7619,24 @@
         <v>73</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>104</v>
+        <v>362</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>73</v>
       </c>
@@ -7566,11 +7660,13 @@
         <v>73</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y50" t="s" s="2">
-        <v>364</v>
+        <v>73</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>73</v>
@@ -7588,7 +7684,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -7603,16 +7699,16 @@
         <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>366</v>
+        <v>157</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>367</v>
+        <v>157</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>368</v>
+        <v>73</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>73</v>
@@ -7620,7 +7716,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7643,17 +7739,15 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>370</v>
+        <v>204</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>73</v>
@@ -7702,7 +7796,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7717,16 +7811,16 @@
         <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>157</v>
+        <v>371</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>73</v>
@@ -7734,9 +7828,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>73</v>
       </c>
@@ -7745,7 +7841,7 @@
         <v>74</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>73</v>
@@ -7754,19 +7850,23 @@
         <v>73</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="M52" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>73</v>
       </c>
@@ -7814,31 +7914,31 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>73</v>
+        <v>326</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>327</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>127</v>
+        <v>328</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>73</v>
+        <v>330</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>73</v>
@@ -7846,11 +7946,9 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>73</v>
       </c>
@@ -7859,7 +7957,7 @@
         <v>74</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -7871,20 +7969,16 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>383</v>
+        <v>154</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>73</v>
       </c>
@@ -7932,31 +8026,31 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>328</v>
+        <v>156</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>335</v>
+        <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>337</v>
+        <v>157</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>73</v>
@@ -7964,18 +8058,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7987,15 +8081,17 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -8032,31 +8128,31 @@
         <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>73</v>
@@ -8076,18 +8172,18 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>73</v>
@@ -8096,20 +8192,18 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>73</v>
@@ -8119,7 +8213,7 @@
         <v>73</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>73</v>
+        <v>375</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>73</v>
@@ -8134,55 +8228,53 @@
         <v>73</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>163</v>
+        <v>338</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>73</v>
@@ -8190,7 +8282,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8213,16 +8305,20 @@
         <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>73</v>
       </c>
@@ -8231,7 +8327,7 @@
         <v>73</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>383</v>
+        <v>73</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>73</v>
@@ -8246,11 +8342,13 @@
         <v>73</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>345</v>
+        <v>73</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>73</v>
@@ -8268,7 +8366,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -8277,22 +8375,22 @@
         <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>350</v>
+        <v>202</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>73</v>
@@ -8317,13 +8415,13 @@
         <v>73</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>352</v>
@@ -8360,13 +8458,11 @@
         <v>73</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>73</v>
+        <v>356</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>73</v>
@@ -8384,7 +8480,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8399,16 +8495,16 @@
         <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>202</v>
+        <v>360</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>73</v>
@@ -8416,7 +8512,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8433,26 +8529,24 @@
         <v>73</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>104</v>
+        <v>362</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>73</v>
       </c>
@@ -8476,11 +8570,13 @@
         <v>73</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>364</v>
+        <v>73</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>73</v>
@@ -8498,7 +8594,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -8513,16 +8609,16 @@
         <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>366</v>
+        <v>157</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>367</v>
+        <v>157</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>368</v>
+        <v>73</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>73</v>
@@ -8530,7 +8626,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8553,17 +8649,15 @@
         <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>370</v>
+        <v>204</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>73</v>
@@ -8612,7 +8706,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -8627,16 +8721,16 @@
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>157</v>
+        <v>371</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>73</v>
@@ -8644,9 +8738,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>73</v>
       </c>
@@ -8655,7 +8751,7 @@
         <v>74</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>73</v>
@@ -8664,19 +8760,23 @@
         <v>73</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>73</v>
       </c>
@@ -8724,31 +8824,31 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>73</v>
+        <v>326</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>96</v>
+        <v>327</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>127</v>
+        <v>328</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>73</v>
+        <v>330</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>73</v>
@@ -8756,11 +8856,9 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>73</v>
       </c>
@@ -8769,7 +8867,7 @@
         <v>74</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>73</v>
@@ -8781,20 +8879,16 @@
         <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>329</v>
+        <v>153</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>386</v>
+        <v>154</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>73</v>
       </c>
@@ -8842,31 +8936,31 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>328</v>
+        <v>156</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>335</v>
+        <v>73</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>337</v>
+        <v>157</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>338</v>
+        <v>73</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>73</v>
@@ -8874,18 +8968,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8897,15 +8991,17 @@
         <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>73</v>
@@ -8942,31 +9038,31 @@
         <v>73</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>73</v>
@@ -8986,18 +9082,18 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>73</v>
@@ -9006,20 +9102,18 @@
         <v>73</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>73</v>
@@ -9029,7 +9123,7 @@
         <v>73</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>73</v>
+        <v>377</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>73</v>
@@ -9044,55 +9138,53 @@
         <v>73</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>163</v>
+        <v>338</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>73</v>
@@ -9100,7 +9192,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9123,16 +9215,20 @@
         <v>85</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>73</v>
       </c>
@@ -9141,7 +9237,7 @@
         <v>73</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>385</v>
+        <v>73</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>73</v>
@@ -9156,11 +9252,13 @@
         <v>73</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X64" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y64" t="s" s="2">
-        <v>345</v>
+        <v>73</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>73</v>
@@ -9178,7 +9276,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -9187,22 +9285,22 @@
         <v>84</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>350</v>
+        <v>202</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>73</v>
@@ -9227,13 +9325,13 @@
         <v>73</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>352</v>
@@ -9270,13 +9368,11 @@
         <v>73</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>73</v>
+        <v>356</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>73</v>
@@ -9294,7 +9390,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -9309,16 +9405,16 @@
         <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>202</v>
+        <v>360</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>73</v>
@@ -9326,7 +9422,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9343,26 +9439,24 @@
         <v>73</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>104</v>
+        <v>362</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>73</v>
       </c>
@@ -9386,11 +9480,13 @@
         <v>73</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>364</v>
+        <v>73</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>73</v>
@@ -9408,7 +9504,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -9423,16 +9519,16 @@
         <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>366</v>
+        <v>157</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>367</v>
+        <v>157</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>368</v>
+        <v>73</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>73</v>
@@ -9440,7 +9536,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9463,17 +9559,15 @@
         <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>370</v>
+        <v>204</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>73</v>
@@ -9522,7 +9616,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -9537,16 +9631,16 @@
         <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>157</v>
+        <v>371</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>73</v>
@@ -9554,7 +9648,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9565,7 +9659,7 @@
         <v>74</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>73</v>
@@ -9574,19 +9668,23 @@
         <v>73</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>73</v>
       </c>
@@ -9634,31 +9732,31 @@
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>96</v>
+        <v>387</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>127</v>
+        <v>388</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>73</v>
+        <v>390</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>210</v>
+        <v>391</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>73</v>
@@ -9666,7 +9764,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9677,7 +9775,7 @@
         <v>74</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>73</v>
@@ -9689,20 +9787,16 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>389</v>
+        <v>153</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>390</v>
+        <v>154</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>73</v>
       </c>
@@ -9750,31 +9844,31 @@
         <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>388</v>
+        <v>156</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>394</v>
+        <v>73</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>395</v>
+        <v>73</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>396</v>
+        <v>73</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>397</v>
+        <v>157</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>398</v>
+        <v>73</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>399</v>
+        <v>73</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>73</v>
@@ -9782,18 +9876,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>73</v>
@@ -9805,15 +9899,17 @@
         <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>73</v>
@@ -9850,31 +9946,31 @@
         <v>73</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>73</v>
@@ -9894,41 +9990,43 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>131</v>
+        <v>395</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>159</v>
+        <v>396</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>73</v>
       </c>
@@ -9940,7 +10038,7 @@
         <v>73</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>73</v>
+        <v>399</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>73</v>
@@ -9952,55 +10050,55 @@
         <v>73</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>73</v>
+        <v>400</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>73</v>
+        <v>401</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>163</v>
+        <v>402</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>73</v>
+        <v>403</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>157</v>
+        <v>359</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>73</v>
+        <v>404</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>73</v>
@@ -10008,7 +10106,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10025,7 +10123,7 @@
         <v>73</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>85</v>
@@ -10034,17 +10132,15 @@
         <v>104</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>73</v>
       </c>
@@ -10056,7 +10152,7 @@
         <v>73</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>73</v>
@@ -10071,10 +10167,10 @@
         <v>169</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>73</v>
@@ -10092,7 +10188,7 @@
         <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
@@ -10107,16 +10203,16 @@
         <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>412</v>
+        <v>73</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>73</v>
@@ -10124,7 +10220,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10147,18 +10243,20 @@
         <v>85</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>73</v>
       </c>
@@ -10170,7 +10268,7 @@
         <v>73</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>73</v>
@@ -10182,13 +10280,13 @@
         <v>73</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>418</v>
+        <v>73</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>419</v>
+        <v>73</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>73</v>
@@ -10224,7 +10322,7 @@
         <v>421</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>73</v>
@@ -10238,7 +10336,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10249,7 +10347,7 @@
         <v>74</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>73</v>
@@ -10264,17 +10362,13 @@
         <v>153</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M74" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="N74" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>73</v>
       </c>
@@ -10286,49 +10380,49 @@
         <v>73</v>
       </c>
       <c r="S74" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="T74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>73</v>
@@ -10337,16 +10431,16 @@
         <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AK74" t="s" s="2">
+      <c r="AL74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>73</v>
@@ -10358,14 +10452,14 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>73</v>
+        <v>432</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>73</v>
@@ -10380,10 +10474,10 @@
         <v>153</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10398,7 +10492,7 @@
         <v>73</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>73</v>
@@ -10434,13 +10528,13 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>73</v>
@@ -10449,16 +10543,16 @@
         <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>73</v>
@@ -10466,11 +10560,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10492,12 +10586,14 @@
         <v>153</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>73</v>
@@ -10510,7 +10606,7 @@
         <v>73</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>73</v>
@@ -10546,7 +10642,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -10561,16 +10657,16 @@
         <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>447</v>
+        <v>73</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>73</v>
@@ -10578,11 +10674,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10604,14 +10700,12 @@
         <v>153</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M77" t="s" s="2">
         <v>452</v>
       </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>73</v>
@@ -10624,43 +10718,43 @@
         <v>73</v>
       </c>
       <c r="S77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE77" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10675,16 +10769,16 @@
         <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>73</v>
@@ -10736,7 +10830,7 @@
         <v>73</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>73</v>
+        <v>461</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>73</v>
@@ -10772,7 +10866,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10787,16 +10881,16 @@
         <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>73</v>
@@ -10804,11 +10898,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10835,7 +10929,9 @@
       <c r="L79" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M79" s="2"/>
+      <c r="M79" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>73</v>
@@ -10848,7 +10944,7 @@
         <v>73</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>73</v>
@@ -10884,7 +10980,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10899,16 +10995,16 @@
         <v>96</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>73</v>
@@ -10916,7 +11012,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10939,18 +11035,18 @@
         <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M80" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="N80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>73</v>
       </c>
@@ -10962,7 +11058,7 @@
         <v>73</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>73</v>
@@ -10998,7 +11094,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -11013,16 +11109,16 @@
         <v>96</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>481</v>
+        <v>371</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>482</v>
+        <v>210</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>73</v>
@@ -11030,7 +11126,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11053,17 +11149,17 @@
         <v>85</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>73</v>
@@ -11076,7 +11172,7 @@
         <v>73</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>487</v>
+        <v>73</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>73</v>
@@ -11112,7 +11208,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -11127,16 +11223,16 @@
         <v>96</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>489</v>
+        <v>227</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>379</v>
+        <v>486</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>73</v>
@@ -11144,7 +11240,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11155,7 +11251,7 @@
         <v>74</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>73</v>
@@ -11164,20 +11260,22 @@
         <v>73</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>212</v>
+        <v>488</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>73</v>
@@ -11226,13 +11324,13 @@
         <v>73</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>73</v>
@@ -11241,16 +11339,16 @@
         <v>96</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>73</v>
@@ -11258,7 +11356,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11269,7 +11367,7 @@
         <v>74</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>73</v>
@@ -11281,18 +11379,16 @@
         <v>73</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>496</v>
+        <v>86</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>497</v>
+        <v>154</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>498</v>
+        <v>155</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>499</v>
-      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>73</v>
       </c>
@@ -11340,19 +11436,19 @@
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>495</v>
+        <v>156</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>73</v>
@@ -11367,6 +11463,806 @@
         <v>73</v>
       </c>
       <c r="AN83" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1960,44 +1960,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.4375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.53515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.5390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="54.1015625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="54.10546875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.10546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.98046875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="534">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Organization-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/Organization-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -601,7 +601,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/ValueSet/organizationIdSystems</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/ValueSet/organizationIdSystems</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -703,7 +703,7 @@
 </t>
   </si>
   <si>
-    <t>Whether the organization's record is in active use</t>
+    <t>Whether this organization's record is in active use</t>
   </si>
   <si>
     <t>Whether the organization's record is still in active use.</t>
@@ -963,7 +963,7 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Organization's name</t>
+    <t>Organization's legal name</t>
   </si>
   <si>
     <t>A name associated with the organization.</t>
@@ -1170,13 +1170,13 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Contact Point - phone</t>
+    <t>Corporate phone contact information for the local representative of the marketing authorization holder. International dialling code followed by the area code and telephone number.</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>Contact Point - email</t>
+    <t>Corporate email contact information for the local representative of the marketing authorization holder.</t>
   </si>
   <si>
     <t>url</t>
@@ -1185,7 +1185,7 @@
     <t>Web Site</t>
   </si>
   <si>
-    <t>Contact Point - Web Site</t>
+    <t xml:space="preserve">Website of the local health authority and market authorization holder website </t>
   </si>
   <si>
     <t>Organization.address</t>
@@ -1248,6 +1248,9 @@
     <t>Allows an appropriate address to be chosen from a list of many.</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
@@ -1276,6 +1279,9 @@
   </si>
   <si>
     <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://build.fhir.org/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>physical</t>
   </si>
   <si>
     <t>both</t>
@@ -1984,7 +1990,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="54.10546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.10546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -10035,10 +10041,10 @@
         <v>73</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>73</v>
+        <v>399</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>73</v>
@@ -10053,10 +10059,10 @@
         <v>169</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>73</v>
@@ -10074,7 +10080,7 @@
         <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -10089,7 +10095,7 @@
         <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>359</v>
@@ -10098,7 +10104,7 @@
         <v>73</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>73</v>
@@ -10106,7 +10112,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10132,13 +10138,13 @@
         <v>104</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10149,10 +10155,10 @@
         <v>73</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>73</v>
+        <v>410</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>73</v>
@@ -10167,10 +10173,10 @@
         <v>169</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>73</v>
@@ -10188,7 +10194,7 @@
         <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
@@ -10203,7 +10209,7 @@
         <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>359</v>
@@ -10220,7 +10226,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10246,16 +10252,16 @@
         <v>153</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>73</v>
@@ -10268,7 +10274,7 @@
         <v>73</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>73</v>
@@ -10304,7 +10310,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -10319,10 +10325,10 @@
         <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>73</v>
@@ -10336,7 +10342,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10362,10 +10368,10 @@
         <v>153</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10380,7 +10386,7 @@
         <v>73</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>73</v>
@@ -10416,7 +10422,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -10431,16 +10437,16 @@
         <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>73</v>
@@ -10448,11 +10454,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10474,10 +10480,10 @@
         <v>153</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10492,7 +10498,7 @@
         <v>73</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>73</v>
@@ -10528,7 +10534,7 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -10543,16 +10549,16 @@
         <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>73</v>
@@ -10560,11 +10566,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10586,13 +10592,13 @@
         <v>153</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10606,7 +10612,7 @@
         <v>73</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="T76" t="s" s="2">
         <v>73</v>
@@ -10642,7 +10648,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -10657,10 +10663,10 @@
         <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>73</v>
@@ -10674,11 +10680,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10700,10 +10706,10 @@
         <v>153</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10754,7 +10760,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -10769,16 +10775,16 @@
         <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>73</v>
@@ -10786,11 +10792,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10812,10 +10818,10 @@
         <v>153</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10830,7 +10836,7 @@
         <v>73</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>73</v>
@@ -10866,7 +10872,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -10881,16 +10887,16 @@
         <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>73</v>
@@ -10898,7 +10904,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10924,13 +10930,13 @@
         <v>153</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10944,7 +10950,7 @@
         <v>73</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>73</v>
@@ -10980,7 +10986,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -10995,16 +11001,16 @@
         <v>96</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>73</v>
@@ -11012,7 +11018,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11038,14 +11044,14 @@
         <v>204</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>73</v>
@@ -11058,7 +11064,7 @@
         <v>73</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>73</v>
@@ -11094,7 +11100,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -11109,7 +11115,7 @@
         <v>96</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>371</v>
@@ -11126,7 +11132,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11152,14 +11158,14 @@
         <v>212</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>73</v>
@@ -11208,7 +11214,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -11226,7 +11232,7 @@
         <v>227</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>73</v>
@@ -11240,7 +11246,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11263,19 +11269,19 @@
         <v>73</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>73</v>
@@ -11324,7 +11330,7 @@
         <v>73</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>74</v>
@@ -11342,7 +11348,7 @@
         <v>73</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>73</v>
@@ -11356,7 +11362,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11468,7 +11474,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11582,11 +11588,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11608,10 +11614,10 @@
         <v>130</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>133</v>
@@ -11666,7 +11672,7 @@
         <v>73</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>74</v>
@@ -11698,7 +11704,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11724,14 +11730,14 @@
         <v>174</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>73</v>
@@ -11759,10 +11765,10 @@
         <v>179</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>73</v>
@@ -11780,7 +11786,7 @@
         <v>73</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>74</v>
@@ -11798,7 +11804,7 @@
         <v>73</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>73</v>
@@ -11812,7 +11818,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11835,17 +11841,17 @@
         <v>73</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>73</v>
@@ -11894,7 +11900,7 @@
         <v>73</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>74</v>
@@ -11909,10 +11915,10 @@
         <v>96</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>73</v>
@@ -11926,7 +11932,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11952,14 +11958,14 @@
         <v>321</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>73</v>
@@ -12008,7 +12014,7 @@
         <v>73</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>74</v>
@@ -12023,10 +12029,10 @@
         <v>96</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>73</v>
@@ -12040,7 +12046,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12066,14 +12072,14 @@
         <v>381</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>73</v>
@@ -12122,7 +12128,7 @@
         <v>73</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>74</v>
@@ -12137,10 +12143,10 @@
         <v>96</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>73</v>
@@ -12154,7 +12160,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12177,17 +12183,17 @@
         <v>73</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>73</v>
@@ -12236,7 +12242,7 @@
         <v>73</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-Organization-uv-epi.xlsx
+++ b/StructureDefinition-Organization-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
